--- a/biology/Zoologie/Fuligule_à_tête_rouge/Fuligule_à_tête_rouge.xlsx
+++ b/biology/Zoologie/Fuligule_à_tête_rouge/Fuligule_à_tête_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Fuligule_à_tête_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aythya americana
 Le Fuligule à tête rouge, Canard à tête rouge, Milouin à tête rouge, Morillon à tête rouge, Milouin américain ou encore  Milouin d'Amérique (Aythya americana) est une espèce de canards plongeurs de la famille des anatidés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Fuligule_à_tête_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,16 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mensurations
-Longueur: 40 à 56 cm  
+          <t>Mensurations</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Longueur: 40 à 56 cm  
 Envergure: 78 à 86 cm
 Poids : Mâle ± 1080g, Femelle ± 1030g
-Dimorphisme sexuel
-Dimorphisme sexuel net. Le mâle et la femelle sont différents aussi bien en plumage d’éclipse qu’en plumage nuptial, ils possèdent un corps massif, large.
-Aspect du male
-Le fuligule à tête rouge a un large bec bleu avec la pointe noire. L'intérieur des narines est foncé. Il a l'iris jaune. La tête et le cou sont rouge cuivré. Le reste de la nuque et le corps, la partie basse du dos et la couverture de la queue sont noir. Le dessous est blanc parsemé de gris et de noir. Les côtés sont finement ondulés de noir et de blanc. La couverture des ailes est gris bleu finement tachetée de blanc. L'extérieur des secondaires est duveté bleu gris et l'intérieur est étroitement bordé de noir.
-Aspect de la femelle
-La femelle a la partie avant du corps, la tête et le cou brunâtre. La base du bec est entouré de blanc.
 </t>
         </is>
       </c>
@@ -534,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Fuligule_à_tête_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,22 +560,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Essentiellement végétarien (algues, plantes, herbes), il lui arrive quand même de consommer des petits mollusques, crustacées.
-Comportement social
-Grégarisme
-Ce canard est très sociable et vit en groupe parfois très important. Il est souvent observer en compagnie de fuligules milouins à dos blanc (aythya valisineria) et de petit fuligules (aythya affinis).
-Chant 
-Assez silencieux, le mâle émet un sifflement, en tendant le cou sur l’eau, ou en balançant la tête en arrière. La femelle quant à elle laisse s’échapper un cancanement rauque, et grave, en balançant la tête en arrière.
-Nidification
-Les nids sont installés principalement à terre, dans la végétation à l'abri de l'humidité. Le nid est composé de joncs desséchés, et de grandes herbes, on peut le trouver en plein milieu d’un plan d’eau, ou sur les berges.
-En mai, la femelle pond de 8 à 10 œufs de couleur jaune brunâtre, plus rarement 15 œufs. Ils sont couvés de 24 à 28 jours. Les canetons sont nidifuges, et donc couverts de duvet, sont capables de suivre leur mère dans sa recherche de nourriture immédiatement après l'éclosion.
-Certaines canes parasitent le nid d’autres canes de la même espèce, ou d’espèces différentes.
+          <t>Dimorphisme sexuel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dimorphisme sexuel net. Le mâle et la femelle sont différents aussi bien en plumage d’éclipse qu’en plumage nuptial, ils possèdent un corps massif, large.
 </t>
         </is>
       </c>
@@ -575,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+          <t>Fuligule_à_tête_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,19 +597,294 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dimorphisme sexuel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Aspect du male</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fuligule à tête rouge a un large bec bleu avec la pointe noire. L'intérieur des narines est foncé. Il a l'iris jaune. La tête et le cou sont rouge cuivré. Le reste de la nuque et le corps, la partie basse du dos et la couverture de la queue sont noir. Le dessous est blanc parsemé de gris et de noir. Les côtés sont finement ondulés de noir et de blanc. La couverture des ailes est gris bleu finement tachetée de blanc. L'extérieur des secondaires est duveté bleu gris et l'intérieur est étroitement bordé de noir.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fuligule_à_tête_rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dimorphisme sexuel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Aspect de la femelle</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle a la partie avant du corps, la tête et le cou brunâtre. La base du bec est entouré de blanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fuligule_à_tête_rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Essentiellement végétarien (algues, plantes, herbes), il lui arrive quand même de consommer des petits mollusques, crustacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fuligule_à_tête_rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Comportement social</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Grégarisme</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce canard est très sociable et vit en groupe parfois très important. Il est souvent observer en compagnie de fuligules milouins à dos blanc (aythya valisineria) et de petit fuligules (aythya affinis).
+Chant 
+Assez silencieux, le mâle émet un sifflement, en tendant le cou sur l’eau, ou en balançant la tête en arrière. La femelle quant à elle laisse s’échapper un cancanement rauque, et grave, en balançant la tête en arrière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fuligule_à_tête_rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nidification</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nids sont installés principalement à terre, dans la végétation à l'abri de l'humidité. Le nid est composé de joncs desséchés, et de grandes herbes, on peut le trouver en plein milieu d’un plan d’eau, ou sur les berges.
+En mai, la femelle pond de 8 à 10 œufs de couleur jaune brunâtre, plus rarement 15 œufs. Ils sont couvés de 24 à 28 jours. Les canetons sont nidifuges, et donc couverts de duvet, sont capables de suivre leur mère dans sa recherche de nourriture immédiatement après l'éclosion.
+Certaines canes parasitent le nid d’autres canes de la même espèce, ou d’espèces différentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fuligule_à_tête_rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Répartition
-Cette espèce étant migratrice présente une répartition différente selon les saisons : 
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cette espèce étant migratrice présente une répartition différente selon les saisons : 
 pendant la période de reproduction : du Canada (Colombie-Britannique) à la Californie et au Nouveau-Mexique ;
-pendant l'hivernage : du nord des États-Unis aux Antilles et au Guatemala.
-Habitat
-On rencontre le milouin d’Amérique, dans les lacs et marais d’eau douce (1 à 9 m de profondeur) durant la saison estivale. En hiver on peut le voir le long des côtes en eau saumâtre ou saline.
-Populations et menaces
-La population de ce canard n’est pas préoccupante, cela dit elle est en régression, elle est estimée à 600 000 oiseaux. Cela s’explique par la destruction de son milieu de vie, le drainage important des prairies et une forte prédation (vison, raton laveur, coyote).
+pendant l'hivernage : du nord des États-Unis aux Antilles et au Guatemala.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fuligule_à_tête_rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le milouin d’Amérique, dans les lacs et marais d’eau douce (1 à 9 m de profondeur) durant la saison estivale. En hiver on peut le voir le long des côtes en eau saumâtre ou saline.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fuligule_à_tête_rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fuligule_%C3%A0_t%C3%AAte_rouge</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Populations et menaces</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La population de ce canard n’est pas préoccupante, cela dit elle est en régression, elle est estimée à 600 000 oiseaux. Cela s’explique par la destruction de son milieu de vie, le drainage important des prairies et une forte prédation (vison, raton laveur, coyote).
 </t>
         </is>
       </c>
